--- a/Basic Key of Excel session 1 and session 2 3107.xlsx
+++ b/Basic Key of Excel session 1 and session 2 3107.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data Analyst\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A380190C-D7FB-4406-9422-F0D46BD8B37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58C095-8233-4AE6-8258-20BBF0974B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="3" xr2:uid="{65B41632-0791-4A9B-A728-73A402382A17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="6" xr2:uid="{65B41632-0791-4A9B-A728-73A402382A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Product</t>
   </si>
@@ -259,6 +262,39 @@
   </si>
   <si>
     <t>Workdays</t>
+  </si>
+  <si>
+    <t>Project Start</t>
+  </si>
+  <si>
+    <t>Project End</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Salary Status</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -268,10 +304,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +327,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -328,12 +371,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -350,6 +406,1859 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4986001749781275E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.82225021872265969"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Project Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>John Doe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alice Johnson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bob Brown</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eva White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mm\-yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA4E-4DFE-A0FC-C5513AD36E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Project End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>John Doe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alice Johnson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bob Brown</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eva White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mm\-yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA4E-4DFE-A0FC-C5513AD36E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="644819552"/>
+        <c:axId val="694630768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644819552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694630768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694630768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="dd\-mm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644819552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Project Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>John Doe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jane Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alice Johnson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bob Brown</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eva White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mm\-yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5587-47C8-BA24-4F56612798AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5587-47C8-BA24-4F56612798AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="776898592"/>
+        <c:axId val="786004416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="776898592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786004416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="786004416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="dd\-mm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776898592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B07282F-E35B-4C61-8B0A-C8464689280E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CE44BE-D491-4D8F-8E9F-E03B117F286A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,7 +2922,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16BF14A-446F-4715-B224-3372C05F922C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,6 +3395,7 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,7 +3539,7 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">TODAY()</f>
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="C9">
         <f ca="1">YEAR(B9)</f>
@@ -1645,11 +3555,11 @@
       </c>
       <c r="B10" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>45868</v>
+        <v>45872</v>
       </c>
       <c r="C10">
         <f ca="1">MONTH(B10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -1661,11 +3571,11 @@
       </c>
       <c r="B11" s="8">
         <f ca="1">TODAY()+1</f>
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="C11">
         <f ca="1">DAY(B11)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -1716,7 +3626,7 @@
       </c>
       <c r="C16">
         <f ca="1">DATEDIF(B16,TODAY(),"d")</f>
-        <v>1178</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +3635,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NETWORKDAYS(B16,TODAY())</f>
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,4 +3651,519 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E274BB-7348-418F-A5C4-A132E40E86C0}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14">
+        <v>44691</v>
+      </c>
+      <c r="C2" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45458</v>
+      </c>
+      <c r="F2" s="15">
+        <f>DATEDIF(D2,E2,"d")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="14">
+        <v>44941</v>
+      </c>
+      <c r="C3" s="13">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45461</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F6" si="0">DATEDIF(D3,E3,"d")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44378</v>
+      </c>
+      <c r="C4" s="13">
+        <v>55000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45463</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45219</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45000</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45468</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43895</v>
+      </c>
+      <c r="C6" s="13">
+        <v>70000</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45473</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596DB214-3518-48D0-9E3E-81BA0BFE304F}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14">
+        <v>44691</v>
+      </c>
+      <c r="C2" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45458</v>
+      </c>
+      <c r="F2" s="15">
+        <f>DATEDIF(D2,E2,"d")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="14">
+        <v>44941</v>
+      </c>
+      <c r="C3" s="13">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45461</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F6" si="0">DATEDIF(D3,E3,"d")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44378</v>
+      </c>
+      <c r="C4" s="13">
+        <v>55000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45463</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45219</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45000</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45468</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43895</v>
+      </c>
+      <c r="C6" s="13">
+        <v>70000</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45444</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45473</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8623268-1EF6-4C04-B291-EE3717946F20}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2&gt;50000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.IFS(D2=1,"Excellent",D2=2,"Good",D2=3,"Average",D2=4,"Fine",D2=5,"Poor")</f>
+        <v>Average</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.SWITCH(D2,1,"Excellent",2,"Good",3,"Average",4,"Fine",5,"Poor")</f>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(C3&gt;50000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F6" si="0">_xlfn.IFS(D3=1,"Excellent",D3=2,"Good",D3=3,"Average",D3=4,"Fine",D3=5,"Poor")</f>
+        <v>Fine</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G6" si="1">_xlfn.SWITCH(D3,1,"Excellent",2,"Good",3,"Average",4,"Fine",5,"Poor")</f>
+        <v>Fine</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>55000</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(C4&gt;50000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Average</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>45000</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(C5&gt;50000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Good</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>70000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C6&gt;50000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Fine</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>Fine</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>